--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dlk2-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dlk2-Notch1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1020043333333333</v>
+        <v>0.1021123333333333</v>
       </c>
       <c r="H2">
-        <v>0.306013</v>
+        <v>0.306337</v>
       </c>
       <c r="I2">
-        <v>0.3576823635020525</v>
+        <v>0.3579255212252356</v>
       </c>
       <c r="J2">
-        <v>0.3576823635020525</v>
+        <v>0.3579255212252356</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N2">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O2">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P2">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q2">
-        <v>4.687763538892556</v>
+        <v>4.944709038885888</v>
       </c>
       <c r="R2">
-        <v>42.18987185003301</v>
+        <v>44.50238134997299</v>
       </c>
       <c r="S2">
-        <v>0.2213763698398953</v>
+        <v>0.2259140892538728</v>
       </c>
       <c r="T2">
-        <v>0.2213763698398953</v>
+        <v>0.2259140892538727</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1020043333333333</v>
+        <v>0.1021123333333333</v>
       </c>
       <c r="H3">
-        <v>0.306013</v>
+        <v>0.306337</v>
       </c>
       <c r="I3">
-        <v>0.3576823635020525</v>
+        <v>0.3579255212252356</v>
       </c>
       <c r="J3">
-        <v>0.3576823635020525</v>
+        <v>0.3579255212252356</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N3">
         <v>20.549744</v>
       </c>
       <c r="O3">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P3">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q3">
-        <v>0.6987209789635556</v>
+        <v>0.6994607697475554</v>
       </c>
       <c r="R3">
-        <v>6.288488810672</v>
+        <v>6.295146927727999</v>
       </c>
       <c r="S3">
-        <v>0.03299661183218975</v>
+        <v>0.03195699514848208</v>
       </c>
       <c r="T3">
-        <v>0.03299661183218974</v>
+        <v>0.03195699514848208</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1020043333333333</v>
+        <v>0.1021123333333333</v>
       </c>
       <c r="H4">
-        <v>0.306013</v>
+        <v>0.306337</v>
       </c>
       <c r="I4">
-        <v>0.3576823635020525</v>
+        <v>0.3579255212252356</v>
       </c>
       <c r="J4">
-        <v>0.3576823635020525</v>
+        <v>0.3579255212252356</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>21.446458</v>
       </c>
       <c r="N4">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O4">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P4">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q4">
-        <v>2.187631650651334</v>
+        <v>2.189947868115333</v>
       </c>
       <c r="R4">
-        <v>19.688684855862</v>
+        <v>19.709530813038</v>
       </c>
       <c r="S4">
-        <v>0.1033093818299674</v>
+        <v>0.1000544368228808</v>
       </c>
       <c r="T4">
-        <v>0.1033093818299674</v>
+        <v>0.1000544368228808</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.205206</v>
       </c>
       <c r="I5">
-        <v>0.2398544084231787</v>
+        <v>0.2397636084069039</v>
       </c>
       <c r="J5">
-        <v>0.2398544084231787</v>
+        <v>0.2397636084069039</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N5">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O5">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P5">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q5">
-        <v>3.143517447827334</v>
+        <v>3.312312789619333</v>
       </c>
       <c r="R5">
-        <v>28.291657030446</v>
+        <v>29.810815106574</v>
       </c>
       <c r="S5">
-        <v>0.1484504231825627</v>
+        <v>0.151333095902324</v>
       </c>
       <c r="T5">
-        <v>0.1484504231825627</v>
+        <v>0.151333095902324</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.205206</v>
       </c>
       <c r="I6">
-        <v>0.2398544084231787</v>
+        <v>0.2397636084069039</v>
       </c>
       <c r="J6">
-        <v>0.2398544084231787</v>
+        <v>0.2397636084069039</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N6">
         <v>20.549744</v>
       </c>
       <c r="O6">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P6">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q6">
-        <v>0.4685478630293333</v>
+        <v>0.4685478630293334</v>
       </c>
       <c r="R6">
         <v>4.216930767264</v>
       </c>
       <c r="S6">
-        <v>0.02212684666218863</v>
+        <v>0.02140703586716399</v>
       </c>
       <c r="T6">
-        <v>0.02212684666218863</v>
+        <v>0.02140703586716398</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.205206</v>
       </c>
       <c r="I7">
-        <v>0.2398544084231787</v>
+        <v>0.2397636084069039</v>
       </c>
       <c r="J7">
-        <v>0.2398544084231787</v>
+        <v>0.2397636084069039</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,13 +865,13 @@
         <v>21.446458</v>
       </c>
       <c r="N7">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O7">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P7">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q7">
         <v>1.466980620116</v>
@@ -880,10 +880,10 @@
         <v>13.202825581044</v>
       </c>
       <c r="S7">
-        <v>0.06927713857842736</v>
+        <v>0.06702347663741591</v>
       </c>
       <c r="T7">
-        <v>0.06927713857842735</v>
+        <v>0.06702347663741591</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.344325</v>
       </c>
       <c r="I8">
-        <v>0.4024632280747688</v>
+        <v>0.4023108703678605</v>
       </c>
       <c r="J8">
-        <v>0.4024632280747688</v>
+        <v>0.4023108703678605</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N8">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O8">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P8">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q8">
-        <v>5.274658856091667</v>
+        <v>5.557888664491666</v>
       </c>
       <c r="R8">
-        <v>47.471929704825</v>
+        <v>50.02099798042499</v>
       </c>
       <c r="S8">
-        <v>0.2490920926402537</v>
+        <v>0.2539290676031291</v>
       </c>
       <c r="T8">
-        <v>0.2490920926402537</v>
+        <v>0.2539290676031291</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.344325</v>
       </c>
       <c r="I9">
-        <v>0.4024632280747688</v>
+        <v>0.4023108703678605</v>
       </c>
       <c r="J9">
-        <v>0.4024632280747688</v>
+        <v>0.4023108703678605</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N9">
         <v>20.549744</v>
       </c>
       <c r="O9">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P9">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q9">
-        <v>0.7861989558666665</v>
+        <v>0.7861989558666667</v>
       </c>
       <c r="R9">
-        <v>7.075790602799999</v>
+        <v>7.0757906028</v>
       </c>
       <c r="S9">
-        <v>0.03712769839555422</v>
+        <v>0.0359198933021512</v>
       </c>
       <c r="T9">
-        <v>0.03712769839555422</v>
+        <v>0.03591989330215119</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.344325</v>
       </c>
       <c r="I10">
-        <v>0.4024632280747688</v>
+        <v>0.4023108703678605</v>
       </c>
       <c r="J10">
-        <v>0.4024632280747688</v>
+        <v>0.4023108703678605</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>21.446458</v>
       </c>
       <c r="N10">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O10">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P10">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q10">
-        <v>2.46151721695</v>
+        <v>2.461517216949999</v>
       </c>
       <c r="R10">
         <v>22.15365495255</v>
       </c>
       <c r="S10">
-        <v>0.1162434370389609</v>
+        <v>0.1124619094625802</v>
       </c>
       <c r="T10">
-        <v>0.1162434370389608</v>
+        <v>0.1124619094625802</v>
       </c>
     </row>
   </sheetData>
